--- a/biology/Histoire de la zoologie et de la botanique/Misael_Acosta_Solís/Misael_Acosta_Solís.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Misael_Acosta_Solís/Misael_Acosta_Solís.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Misael_Acosta_Sol%C3%ADs</t>
+          <t>Misael_Acosta_Solís</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Misael Acosta Solís, né le 16 décembre 1910 à Ambato, mort en avril 1994 à Quito, est un naturaliste équatorien.
-Titulaire d'un doctorat de l'école de sciences naturelles de l'université centrale de l'Équateur[1], il devint en 1939 membre correspondant de la National Geographic Society (NGS) de Washington DC.
+Titulaire d'un doctorat de l'école de sciences naturelles de l'université centrale de l'Équateur, il devint en 1939 membre correspondant de la National Geographic Society (NGS) de Washington DC.
 Il fut le directeur botanique d'expéditions organisées en Équateur par le département américain de l'Agriculture.
 Il est le fondateur du Département des forêts de l'Équateur, qui relève du ministère de l'Agriculture, et en fut le premier directeur.
 Il fut professeur de botanique et d'écologie à l'université pontificale catholique de l'Équateur.
